--- a/b_list_6.xlsx
+++ b/b_list_6.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5847,11 +5847,21 @@
       <c r="C208" t="n">
         <v>6308475</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>3940030</v>
+      </c>
+      <c r="E208" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F208" t="n">
+        <v>130414993000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>5689642941600</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.289999961853027</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -5868,6 +5878,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>28750</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9680325</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5880,7 +5906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11296,11 +11322,21 @@
       <c r="C208" t="n">
         <v>1973808</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>3564786</v>
+      </c>
+      <c r="E208" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26236824960</v>
+      </c>
+      <c r="G208" t="n">
+        <v>696988584960</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.759999990463257</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11317,6 +11353,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>7490</v>
+      </c>
+      <c r="C210" t="n">
+        <v>7471944</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11329,7 +11381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16745,11 +16797,21 @@
       <c r="C208" t="n">
         <v>2223217</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>1938438</v>
+      </c>
+      <c r="E208" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7550216010</v>
+      </c>
+      <c r="G208" t="n">
+        <v>274493803415</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -16759,7 +16821,7 @@
         <v>3875</v>
       </c>
       <c r="C209" t="n">
-        <v>977709</v>
+        <v>988766</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -16767,6 +16829,22 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3870</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1877198</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_6.xlsx
+++ b/b_list_6.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5873,11 +5873,21 @@
       <c r="C209" t="n">
         <v>3390231</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>3934910</v>
+      </c>
+      <c r="E209" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F209" t="n">
+        <v>132999958000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>5809967716800</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.289999961853027</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -5894,6 +5904,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>27600</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2501185</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5906,7 +5932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11348,11 +11374,21 @@
       <c r="C209" t="n">
         <v>844300</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>3604622</v>
+      </c>
+      <c r="E209" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26313740600</v>
+      </c>
+      <c r="G209" t="n">
+        <v>691306612800</v>
+      </c>
+      <c r="H209" t="n">
+        <v>3.809999942779541</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11362,13 +11398,29 @@
         <v>7490</v>
       </c>
       <c r="C210" t="n">
-        <v>7471944</v>
+        <v>7521003</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>7130</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2285337</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11381,7 +11433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16823,11 +16875,21 @@
       <c r="C209" t="n">
         <v>988766</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>1928220</v>
+      </c>
+      <c r="E209" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7471852500</v>
+      </c>
+      <c r="G209" t="n">
+        <v>273084335875</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.740000009536743</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -16837,7 +16899,7 @@
         <v>3870</v>
       </c>
       <c r="C210" t="n">
-        <v>1877198</v>
+        <v>1885137</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -16845,6 +16907,22 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
     </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3770</v>
+      </c>
+      <c r="C211" t="n">
+        <v>695540</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_6.xlsx
+++ b/b_list_6.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="한화솔루션" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="아난티" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="대아티아이" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="동원산업" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5899,11 +5900,21 @@
       <c r="C210" t="n">
         <v>9680325</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>6237659</v>
+      </c>
+      <c r="E210" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F210" t="n">
+        <v>179332696250</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4941910410000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3.630000114440918</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -5915,11 +5926,157 @@
       <c r="C211" t="n">
         <v>2501185</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>6474838</v>
+      </c>
+      <c r="E211" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F211" t="n">
+        <v>178705528800</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4744233993600</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3.769999980926514</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>26250</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2016643</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6699818</v>
+      </c>
+      <c r="E212" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F212" t="n">
+        <v>175870222500</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4512179070000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3.900000095367432</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>26550</v>
+      </c>
+      <c r="C213" t="n">
+        <v>859217</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6847365</v>
+      </c>
+      <c r="E213" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F213" t="n">
+        <v>181797540750</v>
+      </c>
+      <c r="G213" t="n">
+        <v>4563746830800</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3.980000019073486</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>27750</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1675365</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6924494</v>
+      </c>
+      <c r="E214" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F214" t="n">
+        <v>192154708500</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4770017874000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>4.03000020980835</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>28450</v>
+      </c>
+      <c r="C215" t="n">
+        <v>913330</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6791242</v>
+      </c>
+      <c r="E215" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F215" t="n">
+        <v>193210834900</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4890342649200</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3.950000047683716</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>29550</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1740890</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>28250</v>
+      </c>
+      <c r="C217" t="n">
+        <v>813587</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5932,7 +6089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11400,11 +11557,21 @@
       <c r="C210" t="n">
         <v>7521003</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>3945423</v>
+      </c>
+      <c r="E210" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F210" t="n">
+        <v>29551218270</v>
+      </c>
+      <c r="G210" t="n">
+        <v>709299524640</v>
+      </c>
+      <c r="H210" t="n">
+        <v>4.170000076293945</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11414,13 +11581,159 @@
         <v>7130</v>
       </c>
       <c r="C211" t="n">
-        <v>2285337</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>2333105</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3932744</v>
+      </c>
+      <c r="E211" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F211" t="n">
+        <v>28040464720</v>
+      </c>
+      <c r="G211" t="n">
+        <v>675207691680</v>
+      </c>
+      <c r="H211" t="n">
+        <v>4.150000095367432</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1725358</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3742780</v>
+      </c>
+      <c r="E212" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F212" t="n">
+        <v>26199460000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>662896752000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3.950000047683716</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6940</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1440324</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3722703</v>
+      </c>
+      <c r="E213" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F213" t="n">
+        <v>25835558820</v>
+      </c>
+      <c r="G213" t="n">
+        <v>657214779840</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3.930000066757202</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6840</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1975136</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3614725</v>
+      </c>
+      <c r="E214" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F214" t="n">
+        <v>24724719000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>647744826240</v>
+      </c>
+      <c r="H214" t="n">
+        <v>3.819999933242798</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6920</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1125893</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3534869</v>
+      </c>
+      <c r="E215" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F215" t="n">
+        <v>24461293480</v>
+      </c>
+      <c r="G215" t="n">
+        <v>655320789120</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3.730000019073486</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>833864</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6840</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1044577</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11433,7 +11746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16901,11 +17214,21 @@
       <c r="C210" t="n">
         <v>1885137</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>1985966</v>
+      </c>
+      <c r="E210" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F210" t="n">
+        <v>7685688420</v>
+      </c>
+      <c r="G210" t="n">
+        <v>272731968990</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.819999933242798</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -16915,13 +17238,5816 @@
         <v>3770</v>
       </c>
       <c r="C211" t="n">
-        <v>695540</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>703975</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1952508</v>
+      </c>
+      <c r="E211" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F211" t="n">
+        <v>7360955160</v>
+      </c>
+      <c r="G211" t="n">
+        <v>265684631290</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2.769999980926514</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3720</v>
+      </c>
+      <c r="C212" t="n">
+        <v>753010</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1863387</v>
+      </c>
+      <c r="E212" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F212" t="n">
+        <v>6931799640</v>
+      </c>
+      <c r="G212" t="n">
+        <v>262160962440</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2.640000104904175</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3825</v>
+      </c>
+      <c r="C213" t="n">
+        <v>432123</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1830094</v>
+      </c>
+      <c r="E213" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7000109550</v>
+      </c>
+      <c r="G213" t="n">
+        <v>269560667025</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2.599999904632568</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3800</v>
+      </c>
+      <c r="C214" t="n">
+        <v>442450</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1855088</v>
+      </c>
+      <c r="E214" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7049334400</v>
+      </c>
+      <c r="G214" t="n">
+        <v>267798832600</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2.630000114440918</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C215" t="n">
+        <v>519555</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1818677</v>
+      </c>
+      <c r="E215" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7074653530</v>
+      </c>
+      <c r="G215" t="n">
+        <v>274141436530</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2.579999923706055</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3905</v>
+      </c>
+      <c r="C216" t="n">
+        <v>303161</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3840</v>
+      </c>
+      <c r="C217" t="n">
+        <v>596112</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H217"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>종가</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>거래량</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>공매도잔량(주)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>상장주식수</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>공매도금액(원)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>시가총액</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>공매도비중(%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B2" t="n">
+        <v>35918</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41826</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32914</v>
+      </c>
+      <c r="E2" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1300103000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1422864852500</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B3" t="n">
+        <v>36009</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32711</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1295355600</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1426467042000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47647</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32155</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1276553500</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1430069231500</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29914</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32894</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1305891800</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1430069231500</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36950</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33931</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37266</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1376978700</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1331009020250</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36300</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24924</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37688</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1368074400</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1307594788500</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36300</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10059</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37650</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1366695000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1307594788500</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35250</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12461</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37562</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1324060500</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1269771798750</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B10" t="n">
+        <v>34650</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7673</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37549</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1301072850</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1248158661750</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B11" t="n">
+        <v>34650</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8772</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37612</v>
+      </c>
+      <c r="E11" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1303255800</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1248158661750</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B12" t="n">
+        <v>34100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4699</v>
+      </c>
+      <c r="D12" t="n">
+        <v>37593</v>
+      </c>
+      <c r="E12" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1281921300</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1228346619500</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B13" t="n">
+        <v>34800</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8838</v>
+      </c>
+      <c r="D13" t="n">
+        <v>37520</v>
+      </c>
+      <c r="E13" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1305696000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1253561946000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B14" t="n">
+        <v>34750</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8919</v>
+      </c>
+      <c r="D14" t="n">
+        <v>37538</v>
+      </c>
+      <c r="E14" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1304445500</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1251760851250</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5989</v>
+      </c>
+      <c r="D15" t="n">
+        <v>37502</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1312570000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1260766325000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B16" t="n">
+        <v>35050</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17861</v>
+      </c>
+      <c r="D16" t="n">
+        <v>36692</v>
+      </c>
+      <c r="E16" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1286054600</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1262567419750</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B17" t="n">
+        <v>34950</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15434</v>
+      </c>
+      <c r="D17" t="n">
+        <v>37430</v>
+      </c>
+      <c r="E17" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1308178500</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1258965230250</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8169</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37394</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1316268800</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1267970704000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7520</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37359</v>
+      </c>
+      <c r="E19" t="n">
+        <v>36021895</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1311300900</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1264368514500</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35300</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31252</v>
+      </c>
+      <c r="D20" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E20" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1512181400</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1398730165200</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34650</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23068</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40579</v>
+      </c>
+      <c r="E21" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1406062350</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1372974510600</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B22" t="n">
+        <v>34500</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10665</v>
+      </c>
+      <c r="D22" t="n">
+        <v>40488</v>
+      </c>
+      <c r="E22" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1396836000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1367030898000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>16167</v>
+      </c>
+      <c r="D23" t="n">
+        <v>40737</v>
+      </c>
+      <c r="E23" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1393205400</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1355143672800</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B24" t="n">
+        <v>33650</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10945</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41004</v>
+      </c>
+      <c r="E24" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1379784600</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1333350426600</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32700</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17624</v>
+      </c>
+      <c r="D25" t="n">
+        <v>40771</v>
+      </c>
+      <c r="E25" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1333211700</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1295707546800</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B26" t="n">
+        <v>33100</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12155</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40940</v>
+      </c>
+      <c r="E26" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1355114000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1311557180400</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33300</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19193</v>
+      </c>
+      <c r="D27" t="n">
+        <v>40429</v>
+      </c>
+      <c r="E27" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1346285700</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1319481997200</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33300</v>
+      </c>
+      <c r="C28" t="n">
+        <v>19584</v>
+      </c>
+      <c r="D28" t="n">
+        <v>40297</v>
+      </c>
+      <c r="E28" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1341890100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1319481997200</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B29" t="n">
+        <v>33400</v>
+      </c>
+      <c r="C29" t="n">
+        <v>23248</v>
+      </c>
+      <c r="D29" t="n">
+        <v>39549</v>
+      </c>
+      <c r="E29" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1320936600</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1323444405600</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B30" t="n">
+        <v>33650</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28936</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37875</v>
+      </c>
+      <c r="E30" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1274493750</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1333350426600</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B31" t="n">
+        <v>34150</v>
+      </c>
+      <c r="C31" t="n">
+        <v>19725</v>
+      </c>
+      <c r="D31" t="n">
+        <v>37498</v>
+      </c>
+      <c r="E31" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1280556700</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1353162468600</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B32" t="n">
+        <v>34550</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20175</v>
+      </c>
+      <c r="D32" t="n">
+        <v>35254</v>
+      </c>
+      <c r="E32" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1218025700</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1369012102200</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B33" t="n">
+        <v>34350</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10343</v>
+      </c>
+      <c r="D33" t="n">
+        <v>36489</v>
+      </c>
+      <c r="E33" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1253397150</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1361087285400</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34200</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19239</v>
+      </c>
+      <c r="D34" t="n">
+        <v>36895</v>
+      </c>
+      <c r="E34" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1261809000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1355143672800</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33800</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23532</v>
+      </c>
+      <c r="D35" t="n">
+        <v>37505</v>
+      </c>
+      <c r="E35" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1267669000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1339294039200</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34050</v>
+      </c>
+      <c r="C36" t="n">
+        <v>18835</v>
+      </c>
+      <c r="D36" t="n">
+        <v>37522</v>
+      </c>
+      <c r="E36" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1277624100</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1349200060200</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34450</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30809</v>
+      </c>
+      <c r="D37" t="n">
+        <v>37259</v>
+      </c>
+      <c r="E37" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1283572550</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1365049693800</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B38" t="n">
+        <v>34650</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16785</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36597</v>
+      </c>
+      <c r="E38" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1268086050</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1372974510600</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B39" t="n">
+        <v>35050</v>
+      </c>
+      <c r="C39" t="n">
+        <v>17762</v>
+      </c>
+      <c r="D39" t="n">
+        <v>35922</v>
+      </c>
+      <c r="E39" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1259066100</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1388824144200</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B40" t="n">
+        <v>36800</v>
+      </c>
+      <c r="C40" t="n">
+        <v>76896</v>
+      </c>
+      <c r="D40" t="n">
+        <v>33964</v>
+      </c>
+      <c r="E40" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249875200</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1458166291200</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B41" t="n">
+        <v>36350</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14296</v>
+      </c>
+      <c r="D41" t="n">
+        <v>35067</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1274685450</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1440335453400</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B42" t="n">
+        <v>35500</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16988</v>
+      </c>
+      <c r="D42" t="n">
+        <v>36442</v>
+      </c>
+      <c r="E42" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1293691000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1406654982000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B43" t="n">
+        <v>35650</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13503</v>
+      </c>
+      <c r="D43" t="n">
+        <v>36817</v>
+      </c>
+      <c r="E43" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1312526050</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1412598594600</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B44" t="n">
+        <v>35100</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18652</v>
+      </c>
+      <c r="D44" t="n">
+        <v>36466</v>
+      </c>
+      <c r="E44" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1279956600</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1390805348400</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B45" t="n">
+        <v>35350</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9806</v>
+      </c>
+      <c r="D45" t="n">
+        <v>36555</v>
+      </c>
+      <c r="E45" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1292219250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1400711369400</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B46" t="n">
+        <v>35600</v>
+      </c>
+      <c r="C46" t="n">
+        <v>20440</v>
+      </c>
+      <c r="D46" t="n">
+        <v>36627</v>
+      </c>
+      <c r="E46" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1303921200</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1410617390400</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B47" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18810</v>
+      </c>
+      <c r="D47" t="n">
+        <v>36052</v>
+      </c>
+      <c r="E47" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1292464200</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1420523411400</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B48" t="n">
+        <v>36300</v>
+      </c>
+      <c r="C48" t="n">
+        <v>22961</v>
+      </c>
+      <c r="D48" t="n">
+        <v>34654</v>
+      </c>
+      <c r="E48" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1257940200</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1438354249200</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B49" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8708</v>
+      </c>
+      <c r="D49" t="n">
+        <v>35783</v>
+      </c>
+      <c r="E49" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1288188000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1426467024000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B50" t="n">
+        <v>35650</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16244</v>
+      </c>
+      <c r="D50" t="n">
+        <v>35871</v>
+      </c>
+      <c r="E50" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1278801150</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1412598594600</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B51" t="n">
+        <v>35750</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11786</v>
+      </c>
+      <c r="D51" t="n">
+        <v>36427</v>
+      </c>
+      <c r="E51" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1302265250</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1416561003000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B52" t="n">
+        <v>35650</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14766</v>
+      </c>
+      <c r="D52" t="n">
+        <v>36552</v>
+      </c>
+      <c r="E52" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1303078800</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1412598594600</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="B53" t="n">
+        <v>36200</v>
+      </c>
+      <c r="C53" t="n">
+        <v>33534</v>
+      </c>
+      <c r="D53" t="n">
+        <v>36348</v>
+      </c>
+      <c r="E53" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1315797600</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1434391840800</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B54" t="n">
+        <v>36500</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25644</v>
+      </c>
+      <c r="D54" t="n">
+        <v>36082</v>
+      </c>
+      <c r="E54" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1316993000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1446279066000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B55" t="n">
+        <v>36400</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17739</v>
+      </c>
+      <c r="D55" t="n">
+        <v>35873</v>
+      </c>
+      <c r="E55" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1305777200</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1442316657600</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B56" t="n">
+        <v>36650</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16963</v>
+      </c>
+      <c r="D56" t="n">
+        <v>33799</v>
+      </c>
+      <c r="E56" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1238733350</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1452222678600</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B57" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C57" t="n">
+        <v>51313</v>
+      </c>
+      <c r="D57" t="n">
+        <v>29024</v>
+      </c>
+      <c r="E57" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1097107200</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1497790375200</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.07000000029802322</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B58" t="n">
+        <v>38000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21260</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29574</v>
+      </c>
+      <c r="E58" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1123812000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1505715192000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.07000000029802322</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B59" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11652</v>
+      </c>
+      <c r="D59" t="n">
+        <v>30451</v>
+      </c>
+      <c r="E59" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1151047800</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1497790375200</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B60" t="n">
+        <v>37250</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9943</v>
+      </c>
+      <c r="D60" t="n">
+        <v>30848</v>
+      </c>
+      <c r="E60" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1149088000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1475997129000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B61" t="n">
+        <v>37250</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6614</v>
+      </c>
+      <c r="D61" t="n">
+        <v>31790</v>
+      </c>
+      <c r="E61" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1184177500</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1475997129000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B62" t="n">
+        <v>36200</v>
+      </c>
+      <c r="C62" t="n">
+        <v>41097</v>
+      </c>
+      <c r="D62" t="n">
+        <v>30835</v>
+      </c>
+      <c r="E62" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1116227000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1434391840800</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B63" t="n">
+        <v>35700</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20836</v>
+      </c>
+      <c r="D63" t="n">
+        <v>31841</v>
+      </c>
+      <c r="E63" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1136723700</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1414579798800</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B64" t="n">
+        <v>34700</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15482</v>
+      </c>
+      <c r="D64" t="n">
+        <v>31793</v>
+      </c>
+      <c r="E64" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1103217100</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1374955714800</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B65" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>13756</v>
+      </c>
+      <c r="D65" t="n">
+        <v>31079</v>
+      </c>
+      <c r="E65" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1087765000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1386842940000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B66" t="n">
+        <v>35200</v>
+      </c>
+      <c r="C66" t="n">
+        <v>13326</v>
+      </c>
+      <c r="D66" t="n">
+        <v>30897</v>
+      </c>
+      <c r="E66" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1087574400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1394767756800</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B67" t="n">
+        <v>35250</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11278</v>
+      </c>
+      <c r="D67" t="n">
+        <v>30642</v>
+      </c>
+      <c r="E67" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1080130500</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1396748961000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B68" t="n">
+        <v>35550</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11300</v>
+      </c>
+      <c r="D68" t="n">
+        <v>31114</v>
+      </c>
+      <c r="E68" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1106102700</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1408636186200</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B69" t="n">
+        <v>34650</v>
+      </c>
+      <c r="C69" t="n">
+        <v>19223</v>
+      </c>
+      <c r="D69" t="n">
+        <v>31795</v>
+      </c>
+      <c r="E69" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1101696750</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1372974510600</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B70" t="n">
+        <v>34400</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7766</v>
+      </c>
+      <c r="D70" t="n">
+        <v>32482</v>
+      </c>
+      <c r="E70" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1117380800</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1363068489600</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B71" t="n">
+        <v>33900</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12406</v>
+      </c>
+      <c r="D71" t="n">
+        <v>31905</v>
+      </c>
+      <c r="E71" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1081579500</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1343256447600</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B72" t="n">
+        <v>35200</v>
+      </c>
+      <c r="C72" t="n">
+        <v>17343</v>
+      </c>
+      <c r="D72" t="n">
+        <v>29181</v>
+      </c>
+      <c r="E72" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1027171200</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1394767756800</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.07000000029802322</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B73" t="n">
+        <v>35700</v>
+      </c>
+      <c r="C73" t="n">
+        <v>19884</v>
+      </c>
+      <c r="D73" t="n">
+        <v>27016</v>
+      </c>
+      <c r="E73" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F73" t="n">
+        <v>964471200</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1414579798800</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.07000000029802322</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>11684</v>
+      </c>
+      <c r="D74" t="n">
+        <v>25322</v>
+      </c>
+      <c r="E74" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F74" t="n">
+        <v>911592000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1426467024000</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B75" t="n">
+        <v>39900</v>
+      </c>
+      <c r="C75" t="n">
+        <v>253960</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1581000951600</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B76" t="n">
+        <v>42200</v>
+      </c>
+      <c r="C76" t="n">
+        <v>204597</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1672136344800</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B77" t="n">
+        <v>42700</v>
+      </c>
+      <c r="C77" t="n">
+        <v>166986</v>
+      </c>
+      <c r="D77" t="n">
+        <v>15340</v>
+      </c>
+      <c r="E77" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F77" t="n">
+        <v>655018000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1691948386800</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.03999999910593033</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B78" t="n">
+        <v>42100</v>
+      </c>
+      <c r="C78" t="n">
+        <v>69335</v>
+      </c>
+      <c r="D78" t="n">
+        <v>22232</v>
+      </c>
+      <c r="E78" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F78" t="n">
+        <v>935967200</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1668173936400</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B79" t="n">
+        <v>42700</v>
+      </c>
+      <c r="C79" t="n">
+        <v>85177</v>
+      </c>
+      <c r="D79" t="n">
+        <v>29101</v>
+      </c>
+      <c r="E79" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1242612700</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1691948386800</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.07000000029802322</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B80" t="n">
+        <v>43250</v>
+      </c>
+      <c r="C80" t="n">
+        <v>59741</v>
+      </c>
+      <c r="D80" t="n">
+        <v>24823</v>
+      </c>
+      <c r="E80" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1073594750</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1713741633000</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B81" t="n">
+        <v>41850</v>
+      </c>
+      <c r="C81" t="n">
+        <v>47949</v>
+      </c>
+      <c r="D81" t="n">
+        <v>33125</v>
+      </c>
+      <c r="E81" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1386281250</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1658267915400</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B82" t="n">
+        <v>41200</v>
+      </c>
+      <c r="C82" t="n">
+        <v>36109</v>
+      </c>
+      <c r="D82" t="n">
+        <v>34847</v>
+      </c>
+      <c r="E82" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1435696400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1632512260800</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B83" t="n">
+        <v>41150</v>
+      </c>
+      <c r="C83" t="n">
+        <v>79295</v>
+      </c>
+      <c r="D83" t="n">
+        <v>33649</v>
+      </c>
+      <c r="E83" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1384656350</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1630531056600</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B84" t="n">
+        <v>40550</v>
+      </c>
+      <c r="C84" t="n">
+        <v>55903</v>
+      </c>
+      <c r="D84" t="n">
+        <v>38005</v>
+      </c>
+      <c r="E84" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1541102750</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1606756606200</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B85" t="n">
+        <v>41100</v>
+      </c>
+      <c r="C85" t="n">
+        <v>28825</v>
+      </c>
+      <c r="D85" t="n">
+        <v>38267</v>
+      </c>
+      <c r="E85" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1572773700</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1628549852400</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B86" t="n">
+        <v>41650</v>
+      </c>
+      <c r="C86" t="n">
+        <v>55486</v>
+      </c>
+      <c r="D86" t="n">
+        <v>30423</v>
+      </c>
+      <c r="E86" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1267117950</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1650343098600</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B87" t="n">
+        <v>41750</v>
+      </c>
+      <c r="C87" t="n">
+        <v>33228</v>
+      </c>
+      <c r="D87" t="n">
+        <v>30795</v>
+      </c>
+      <c r="E87" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1285691250</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1654305507000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.07999999821186066</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B88" t="n">
+        <v>42900</v>
+      </c>
+      <c r="C88" t="n">
+        <v>56259</v>
+      </c>
+      <c r="D88" t="n">
+        <v>45304</v>
+      </c>
+      <c r="E88" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1943541600</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1699873203600</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.1099999994039536</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B89" t="n">
+        <v>42250</v>
+      </c>
+      <c r="C89" t="n">
+        <v>47576</v>
+      </c>
+      <c r="D89" t="n">
+        <v>59845</v>
+      </c>
+      <c r="E89" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2528451250</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1674117549000</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.1500000059604645</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B90" t="n">
+        <v>42750</v>
+      </c>
+      <c r="C90" t="n">
+        <v>50230</v>
+      </c>
+      <c r="D90" t="n">
+        <v>73835</v>
+      </c>
+      <c r="E90" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3156446250</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1693929591000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.1899999976158142</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B91" t="n">
+        <v>41650</v>
+      </c>
+      <c r="C91" t="n">
+        <v>35047</v>
+      </c>
+      <c r="D91" t="n">
+        <v>80418</v>
+      </c>
+      <c r="E91" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3349409700</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1650343098600</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B92" t="n">
+        <v>41700</v>
+      </c>
+      <c r="C92" t="n">
+        <v>37688</v>
+      </c>
+      <c r="D92" t="n">
+        <v>80059</v>
+      </c>
+      <c r="E92" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3338460300</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1652324302800</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B93" t="n">
+        <v>42950</v>
+      </c>
+      <c r="C93" t="n">
+        <v>60079</v>
+      </c>
+      <c r="D93" t="n">
+        <v>84736</v>
+      </c>
+      <c r="E93" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3639411200</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1701854407800</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.2099999934434891</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B94" t="n">
+        <v>43450</v>
+      </c>
+      <c r="C94" t="n">
+        <v>68836</v>
+      </c>
+      <c r="D94" t="n">
+        <v>88876</v>
+      </c>
+      <c r="E94" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3861662200</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1721666449800</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.2199999988079071</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B95" t="n">
+        <v>43700</v>
+      </c>
+      <c r="C95" t="n">
+        <v>34676</v>
+      </c>
+      <c r="D95" t="n">
+        <v>90884</v>
+      </c>
+      <c r="E95" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3971630800</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1731572470800</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.2300000041723251</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B96" t="n">
+        <v>46300</v>
+      </c>
+      <c r="C96" t="n">
+        <v>138355</v>
+      </c>
+      <c r="D96" t="n">
+        <v>104776</v>
+      </c>
+      <c r="E96" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4851128800</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1834595089200</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.2599999904632568</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B97" t="n">
+        <v>46100</v>
+      </c>
+      <c r="C97" t="n">
+        <v>55299</v>
+      </c>
+      <c r="D97" t="n">
+        <v>109672</v>
+      </c>
+      <c r="E97" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5055879200</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1826670272400</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.2800000011920929</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B98" t="n">
+        <v>45500</v>
+      </c>
+      <c r="C98" t="n">
+        <v>47264</v>
+      </c>
+      <c r="D98" t="n">
+        <v>114927</v>
+      </c>
+      <c r="E98" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5229178500</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1802895822000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.2899999916553497</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B99" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C99" t="n">
+        <v>33589</v>
+      </c>
+      <c r="D99" t="n">
+        <v>116572</v>
+      </c>
+      <c r="E99" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5269054400</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1791008596800</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.2899999916553497</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B100" t="n">
+        <v>45500</v>
+      </c>
+      <c r="C100" t="n">
+        <v>19181</v>
+      </c>
+      <c r="D100" t="n">
+        <v>118137</v>
+      </c>
+      <c r="E100" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5375233500</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1802895822000</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.300000011920929</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B101" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C101" t="n">
+        <v>40748</v>
+      </c>
+      <c r="D101" t="n">
+        <v>120917</v>
+      </c>
+      <c r="E101" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5477540100</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1794971005200</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B102" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C102" t="n">
+        <v>49855</v>
+      </c>
+      <c r="D102" t="n">
+        <v>122605</v>
+      </c>
+      <c r="E102" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5468183000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1767234146400</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B103" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C103" t="n">
+        <v>28525</v>
+      </c>
+      <c r="D103" t="n">
+        <v>123505</v>
+      </c>
+      <c r="E103" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5514498250</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1769215350600</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B104" t="n">
+        <v>47100</v>
+      </c>
+      <c r="C104" t="n">
+        <v>107611</v>
+      </c>
+      <c r="D104" t="n">
+        <v>130457</v>
+      </c>
+      <c r="E104" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6144524700</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1866294356400</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.3300000131130219</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B105" t="n">
+        <v>46500</v>
+      </c>
+      <c r="C105" t="n">
+        <v>27362</v>
+      </c>
+      <c r="D105" t="n">
+        <v>132758</v>
+      </c>
+      <c r="E105" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6173247000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1842519906000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B106" t="n">
+        <v>46300</v>
+      </c>
+      <c r="C106" t="n">
+        <v>29896</v>
+      </c>
+      <c r="D106" t="n">
+        <v>131649</v>
+      </c>
+      <c r="E106" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6095348700</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1834595089200</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.3300000131130219</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B107" t="n">
+        <v>46850</v>
+      </c>
+      <c r="C107" t="n">
+        <v>51855</v>
+      </c>
+      <c r="D107" t="n">
+        <v>130070</v>
+      </c>
+      <c r="E107" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6093779500</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1856388335400</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.3300000131130219</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B108" t="n">
+        <v>46100</v>
+      </c>
+      <c r="C108" t="n">
+        <v>53457</v>
+      </c>
+      <c r="D108" t="n">
+        <v>122088</v>
+      </c>
+      <c r="E108" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5628256800</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1826670272400</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B109" t="n">
+        <v>50200</v>
+      </c>
+      <c r="C109" t="n">
+        <v>141369</v>
+      </c>
+      <c r="D109" t="n">
+        <v>118002</v>
+      </c>
+      <c r="E109" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5923700400</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1989129016800</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.300000011920929</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B110" t="n">
+        <v>48700</v>
+      </c>
+      <c r="C110" t="n">
+        <v>84841</v>
+      </c>
+      <c r="D110" t="n">
+        <v>117539</v>
+      </c>
+      <c r="E110" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5724149300</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1929692890800</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.300000011920929</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B111" t="n">
+        <v>48700</v>
+      </c>
+      <c r="C111" t="n">
+        <v>53038</v>
+      </c>
+      <c r="D111" t="n">
+        <v>118529</v>
+      </c>
+      <c r="E111" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5772362300</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1929692890800</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.300000011920929</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B112" t="n">
+        <v>48400</v>
+      </c>
+      <c r="C112" t="n">
+        <v>151402</v>
+      </c>
+      <c r="D112" t="n">
+        <v>117790</v>
+      </c>
+      <c r="E112" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5701036000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1917805665600</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.300000011920929</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B113" t="n">
+        <v>46300</v>
+      </c>
+      <c r="C113" t="n">
+        <v>121174</v>
+      </c>
+      <c r="D113" t="n">
+        <v>120733</v>
+      </c>
+      <c r="E113" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5589937900</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1834595089200</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.300000011920929</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B114" t="n">
+        <v>47400</v>
+      </c>
+      <c r="C114" t="n">
+        <v>47273</v>
+      </c>
+      <c r="D114" t="n">
+        <v>121857</v>
+      </c>
+      <c r="E114" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5776021800</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1878181581600</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B115" t="n">
+        <v>48200</v>
+      </c>
+      <c r="C115" t="n">
+        <v>72190</v>
+      </c>
+      <c r="D115" t="n">
+        <v>126905</v>
+      </c>
+      <c r="E115" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6116821000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1909880848800</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B116" t="n">
+        <v>46700</v>
+      </c>
+      <c r="C116" t="n">
+        <v>43494</v>
+      </c>
+      <c r="D116" t="n">
+        <v>127821</v>
+      </c>
+      <c r="E116" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5969240700</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1850444722800</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B117" t="n">
+        <v>48600</v>
+      </c>
+      <c r="C117" t="n">
+        <v>81186</v>
+      </c>
+      <c r="D117" t="n">
+        <v>140355</v>
+      </c>
+      <c r="E117" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6821253000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1925730482400</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B118" t="n">
+        <v>49650</v>
+      </c>
+      <c r="C118" t="n">
+        <v>79622</v>
+      </c>
+      <c r="D118" t="n">
+        <v>148013</v>
+      </c>
+      <c r="E118" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7348845450</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1967335770600</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B119" t="n">
+        <v>48000</v>
+      </c>
+      <c r="C119" t="n">
+        <v>51268</v>
+      </c>
+      <c r="D119" t="n">
+        <v>150323</v>
+      </c>
+      <c r="E119" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7215504000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1901956032000</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.3799999952316284</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B120" t="n">
+        <v>47050</v>
+      </c>
+      <c r="C120" t="n">
+        <v>63498</v>
+      </c>
+      <c r="D120" t="n">
+        <v>152786</v>
+      </c>
+      <c r="E120" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7188581300</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1864313152200</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.3899999856948853</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B121" t="n">
+        <v>47250</v>
+      </c>
+      <c r="C121" t="n">
+        <v>43701</v>
+      </c>
+      <c r="D121" t="n">
+        <v>153732</v>
+      </c>
+      <c r="E121" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7263837000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1872237969000</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.3899999856948853</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B122" t="n">
+        <v>46650</v>
+      </c>
+      <c r="C122" t="n">
+        <v>54424</v>
+      </c>
+      <c r="D122" t="n">
+        <v>158268</v>
+      </c>
+      <c r="E122" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7383202200</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1848463518600</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B123" t="n">
+        <v>45650</v>
+      </c>
+      <c r="C123" t="n">
+        <v>61671</v>
+      </c>
+      <c r="D123" t="n">
+        <v>159983</v>
+      </c>
+      <c r="E123" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7303223950</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1808839434600</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B124" t="n">
+        <v>47250</v>
+      </c>
+      <c r="C124" t="n">
+        <v>44631</v>
+      </c>
+      <c r="D124" t="n">
+        <v>163125</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7707656250</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1872237969000</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4099999964237213</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B125" t="n">
+        <v>50900</v>
+      </c>
+      <c r="C125" t="n">
+        <v>152762</v>
+      </c>
+      <c r="D125" t="n">
+        <v>170601</v>
+      </c>
+      <c r="E125" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8683590900</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2016865875600</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.4300000071525574</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B126" t="n">
+        <v>52700</v>
+      </c>
+      <c r="C126" t="n">
+        <v>134530</v>
+      </c>
+      <c r="D126" t="n">
+        <v>181002</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9538805400</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2088189226800</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.4600000083446503</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B127" t="n">
+        <v>51300</v>
+      </c>
+      <c r="C127" t="n">
+        <v>47984</v>
+      </c>
+      <c r="D127" t="n">
+        <v>186916</v>
+      </c>
+      <c r="E127" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9588790800</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2032715509200</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.4699999988079071</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B128" t="n">
+        <v>48750</v>
+      </c>
+      <c r="C128" t="n">
+        <v>58601</v>
+      </c>
+      <c r="D128" t="n">
+        <v>190848</v>
+      </c>
+      <c r="E128" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F128" t="n">
+        <v>9303840000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1931674095000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.4799999892711639</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B129" t="n">
+        <v>48700</v>
+      </c>
+      <c r="C129" t="n">
+        <v>29148</v>
+      </c>
+      <c r="D129" t="n">
+        <v>200360</v>
+      </c>
+      <c r="E129" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9757532000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1929692890800</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B130" t="n">
+        <v>48900</v>
+      </c>
+      <c r="C130" t="n">
+        <v>36253</v>
+      </c>
+      <c r="D130" t="n">
+        <v>207356</v>
+      </c>
+      <c r="E130" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10139708400</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1937617707600</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.5199999809265137</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B131" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C131" t="n">
+        <v>70785</v>
+      </c>
+      <c r="D131" t="n">
+        <v>225153</v>
+      </c>
+      <c r="E131" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11370226500</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2001016242000</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B132" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C132" t="n">
+        <v>30663</v>
+      </c>
+      <c r="D132" t="n">
+        <v>225147</v>
+      </c>
+      <c r="E132" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11257350000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1981204200000</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B133" t="n">
+        <v>49350</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29710</v>
+      </c>
+      <c r="D133" t="n">
+        <v>225170</v>
+      </c>
+      <c r="E133" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F133" t="n">
+        <v>11112139500</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1955448545400</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B134" t="n">
+        <v>49650</v>
+      </c>
+      <c r="C134" t="n">
+        <v>32321</v>
+      </c>
+      <c r="D134" t="n">
+        <v>225049</v>
+      </c>
+      <c r="E134" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11173682850</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1967335770600</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B135" t="n">
+        <v>49200</v>
+      </c>
+      <c r="C135" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D135" t="n">
+        <v>225049</v>
+      </c>
+      <c r="E135" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11072410800</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1949504932800</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B136" t="n">
+        <v>48000</v>
+      </c>
+      <c r="C136" t="n">
+        <v>48348</v>
+      </c>
+      <c r="D136" t="n">
+        <v>225091</v>
+      </c>
+      <c r="E136" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10804368000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1901956032000</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B137" t="n">
+        <v>48050</v>
+      </c>
+      <c r="C137" t="n">
+        <v>30730</v>
+      </c>
+      <c r="D137" t="n">
+        <v>225038</v>
+      </c>
+      <c r="E137" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10813075900</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1903937236200</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B138" t="n">
+        <v>48050</v>
+      </c>
+      <c r="C138" t="n">
+        <v>32392</v>
+      </c>
+      <c r="D138" t="n">
+        <v>225341</v>
+      </c>
+      <c r="E138" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10827635050</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1903937236200</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B139" t="n">
+        <v>46900</v>
+      </c>
+      <c r="C139" t="n">
+        <v>55897</v>
+      </c>
+      <c r="D139" t="n">
+        <v>229170</v>
+      </c>
+      <c r="E139" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10748073000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1858369539600</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B140" t="n">
+        <v>47400</v>
+      </c>
+      <c r="C140" t="n">
+        <v>30264</v>
+      </c>
+      <c r="D140" t="n">
+        <v>229116</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10860098400</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1878181581600</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B141" t="n">
+        <v>47000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>21135</v>
+      </c>
+      <c r="D141" t="n">
+        <v>228278</v>
+      </c>
+      <c r="E141" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10729066000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1862331948000</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B142" t="n">
+        <v>46800</v>
+      </c>
+      <c r="C142" t="n">
+        <v>25312</v>
+      </c>
+      <c r="D142" t="n">
+        <v>227245</v>
+      </c>
+      <c r="E142" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10635066000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1854407131200</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B143" t="n">
+        <v>46150</v>
+      </c>
+      <c r="C143" t="n">
+        <v>19625</v>
+      </c>
+      <c r="D143" t="n">
+        <v>226815</v>
+      </c>
+      <c r="E143" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10467512250</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1828651476600</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B144" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C144" t="n">
+        <v>40759</v>
+      </c>
+      <c r="D144" t="n">
+        <v>226442</v>
+      </c>
+      <c r="E144" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10099313200</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1767234146400</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B145" t="n">
+        <v>45500</v>
+      </c>
+      <c r="C145" t="n">
+        <v>34419</v>
+      </c>
+      <c r="D145" t="n">
+        <v>224264</v>
+      </c>
+      <c r="E145" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10204012000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1802895822000</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B146" t="n">
+        <v>47100</v>
+      </c>
+      <c r="C146" t="n">
+        <v>32583</v>
+      </c>
+      <c r="D146" t="n">
+        <v>217012</v>
+      </c>
+      <c r="E146" t="n">
+        <v>39624084</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10221265200</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1866294356400</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.550000011920929</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B147" t="n">
+        <v>45850</v>
+      </c>
+      <c r="C147" t="n">
+        <v>48047</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4803</v>
+      </c>
+      <c r="E147" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F147" t="n">
+        <v>220217550</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2024185158100</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B148" t="n">
+        <v>43650</v>
+      </c>
+      <c r="C148" t="n">
+        <v>67523</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E148" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F148" t="n">
+        <v>226980000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1927059588900</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B149" t="n">
+        <v>45850</v>
+      </c>
+      <c r="C149" t="n">
+        <v>67859</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E149" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F149" t="n">
+        <v>238420000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2024185158100</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B150" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C150" t="n">
+        <v>72800</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1982244571400</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B151" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>28256</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1986659370000</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B152" t="n">
+        <v>45150</v>
+      </c>
+      <c r="C152" t="n">
+        <v>36171</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1993281567900</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B153" t="n">
+        <v>47450</v>
+      </c>
+      <c r="C153" t="n">
+        <v>130776</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2094821935700</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B154" t="n">
+        <v>46950</v>
+      </c>
+      <c r="C154" t="n">
+        <v>60352</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2072747942700</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B155" t="n">
+        <v>46700</v>
+      </c>
+      <c r="C155" t="n">
+        <v>37018</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2061710946200</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B156" t="n">
+        <v>46150</v>
+      </c>
+      <c r="C156" t="n">
+        <v>24715</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2037429553900</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B157" t="n">
+        <v>46350</v>
+      </c>
+      <c r="C157" t="n">
+        <v>38693</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2046259151100</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B158" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C158" t="n">
+        <v>48230</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2002111165100</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B159" t="n">
+        <v>43550</v>
+      </c>
+      <c r="C159" t="n">
+        <v>55605</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1922644790300</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B160" t="n">
+        <v>43300</v>
+      </c>
+      <c r="C160" t="n">
+        <v>64527</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1911607793800</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B161" t="n">
+        <v>43550</v>
+      </c>
+      <c r="C161" t="n">
+        <v>74788</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1922644790300</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B162" t="n">
+        <v>42700</v>
+      </c>
+      <c r="C162" t="n">
+        <v>39974</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1885119002200</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B163" t="n">
+        <v>42900</v>
+      </c>
+      <c r="C163" t="n">
+        <v>31623</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1893948599400</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B164" t="n">
+        <v>42300</v>
+      </c>
+      <c r="C164" t="n">
+        <v>41378</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1867459807800</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B165" t="n">
+        <v>42400</v>
+      </c>
+      <c r="C165" t="n">
+        <v>25617</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1871874606400</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B166" t="n">
+        <v>43400</v>
+      </c>
+      <c r="C166" t="n">
+        <v>60228</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1916022592400</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B167" t="n">
+        <v>43650</v>
+      </c>
+      <c r="C167" t="n">
+        <v>46462</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1927059588900</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B168" t="n">
+        <v>42700</v>
+      </c>
+      <c r="C168" t="n">
+        <v>23212</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1885119002200</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B169" t="n">
+        <v>41850</v>
+      </c>
+      <c r="C169" t="n">
+        <v>40501</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1847593214100</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B170" t="n">
+        <v>42150</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27995</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1860837609900</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B171" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C171" t="n">
+        <v>87591</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1986659370000</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B172" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C172" t="n">
+        <v>137980</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5866</v>
+      </c>
+      <c r="E172" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F172" t="n">
+        <v>263970000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1986659370000</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B173" t="n">
+        <v>44100</v>
+      </c>
+      <c r="C173" t="n">
+        <v>57920</v>
+      </c>
+      <c r="D173" t="n">
+        <v>13503</v>
+      </c>
+      <c r="E173" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F173" t="n">
+        <v>595482300</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1946926182600</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.02999999932944775</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B174" t="n">
+        <v>47300</v>
+      </c>
+      <c r="C174" t="n">
+        <v>117187</v>
+      </c>
+      <c r="D174" t="n">
+        <v>20067</v>
+      </c>
+      <c r="E174" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F174" t="n">
+        <v>949169100</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2088199737800</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B175" t="n">
+        <v>46900</v>
+      </c>
+      <c r="C175" t="n">
+        <v>57569</v>
+      </c>
+      <c r="D175" t="n">
+        <v>22445</v>
+      </c>
+      <c r="E175" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1052670500</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2070540543400</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B176" t="n">
+        <v>46950</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27695</v>
+      </c>
+      <c r="D176" t="n">
+        <v>21351</v>
+      </c>
+      <c r="E176" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1002429450</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2072747942700</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B177" t="n">
+        <v>47450</v>
+      </c>
+      <c r="C177" t="n">
+        <v>95702</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11423</v>
+      </c>
+      <c r="E177" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F177" t="n">
+        <v>542021350</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2094821935700</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.02999999932944775</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B178" t="n">
+        <v>48300</v>
+      </c>
+      <c r="C178" t="n">
+        <v>61172</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5356</v>
+      </c>
+      <c r="E178" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F178" t="n">
+        <v>258694800</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2132347723800</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B179" t="n">
+        <v>47500</v>
+      </c>
+      <c r="C179" t="n">
+        <v>56664</v>
+      </c>
+      <c r="D179" t="n">
+        <v>10985</v>
+      </c>
+      <c r="E179" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F179" t="n">
+        <v>521787500</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2097029335000</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.01999999955296516</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B180" t="n">
+        <v>47450</v>
+      </c>
+      <c r="C180" t="n">
+        <v>34804</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11021</v>
+      </c>
+      <c r="E180" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F180" t="n">
+        <v>522946450</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2094821935700</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.01999999955296516</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B181" t="n">
+        <v>47500</v>
+      </c>
+      <c r="C181" t="n">
+        <v>31925</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11069</v>
+      </c>
+      <c r="E181" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F181" t="n">
+        <v>525777500</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2097029335000</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.02999999932944775</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B182" t="n">
+        <v>46500</v>
+      </c>
+      <c r="C182" t="n">
+        <v>69709</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11081</v>
+      </c>
+      <c r="E182" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F182" t="n">
+        <v>515266500</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2052881349000</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.02999999932944775</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B183" t="n">
+        <v>47000</v>
+      </c>
+      <c r="C183" t="n">
+        <v>39849</v>
+      </c>
+      <c r="D183" t="n">
+        <v>10271</v>
+      </c>
+      <c r="E183" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F183" t="n">
+        <v>482737000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2074955342000</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.01999999955296516</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B184" t="n">
+        <v>45950</v>
+      </c>
+      <c r="C184" t="n">
+        <v>24433</v>
+      </c>
+      <c r="D184" t="n">
+        <v>10214</v>
+      </c>
+      <c r="E184" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F184" t="n">
+        <v>469333300</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2028599956700</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.01999999955296516</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B185" t="n">
+        <v>45500</v>
+      </c>
+      <c r="C185" t="n">
+        <v>27033</v>
+      </c>
+      <c r="D185" t="n">
+        <v>10100</v>
+      </c>
+      <c r="E185" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F185" t="n">
+        <v>459550000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2008733363000</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.01999999955296516</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B186" t="n">
+        <v>45150</v>
+      </c>
+      <c r="C186" t="n">
+        <v>31780</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5434</v>
+      </c>
+      <c r="E186" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F186" t="n">
+        <v>245345100</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1993281567900</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B187" t="n">
+        <v>44350</v>
+      </c>
+      <c r="C187" t="n">
+        <v>55253</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5800</v>
+      </c>
+      <c r="E187" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F187" t="n">
+        <v>257230000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1957963179100</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B188" t="n">
+        <v>44850</v>
+      </c>
+      <c r="C188" t="n">
+        <v>26952</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5854</v>
+      </c>
+      <c r="E188" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F188" t="n">
+        <v>262551900</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1980037172100</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B189" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C189" t="n">
+        <v>34119</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5908</v>
+      </c>
+      <c r="E189" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F189" t="n">
+        <v>268518600</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2006525963700</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B190" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21585</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5896</v>
+      </c>
+      <c r="E190" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F190" t="n">
+        <v>265025200</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1984451970700</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B191" t="n">
+        <v>44450</v>
+      </c>
+      <c r="C191" t="n">
+        <v>26367</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5776</v>
+      </c>
+      <c r="E191" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F191" t="n">
+        <v>256743200</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1962377977700</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B192" t="n">
+        <v>43500</v>
+      </c>
+      <c r="C192" t="n">
+        <v>50646</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5896</v>
+      </c>
+      <c r="E192" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F192" t="n">
+        <v>256476000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1920437391000</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B193" t="n">
+        <v>42250</v>
+      </c>
+      <c r="C193" t="n">
+        <v>43112</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5938</v>
+      </c>
+      <c r="E193" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F193" t="n">
+        <v>250880500</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1865252408500</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B194" t="n">
+        <v>42300</v>
+      </c>
+      <c r="C194" t="n">
+        <v>31940</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5926</v>
+      </c>
+      <c r="E194" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F194" t="n">
+        <v>250669800</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1867459807800</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B195" t="n">
+        <v>42900</v>
+      </c>
+      <c r="C195" t="n">
+        <v>163531</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E195" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F195" t="n">
+        <v>251394000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1893948599400</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B196" t="n">
+        <v>42650</v>
+      </c>
+      <c r="C196" t="n">
+        <v>51862</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5824</v>
+      </c>
+      <c r="E196" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F196" t="n">
+        <v>248393600</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1882911602900</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B197" t="n">
+        <v>42200</v>
+      </c>
+      <c r="C197" t="n">
+        <v>50585</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5836</v>
+      </c>
+      <c r="E197" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F197" t="n">
+        <v>246279200</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1863045009200</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B198" t="n">
+        <v>42650</v>
+      </c>
+      <c r="C198" t="n">
+        <v>50447</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5734</v>
+      </c>
+      <c r="E198" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F198" t="n">
+        <v>244555100</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1882911602900</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B199" t="n">
+        <v>41900</v>
+      </c>
+      <c r="C199" t="n">
+        <v>53028</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5746</v>
+      </c>
+      <c r="E199" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F199" t="n">
+        <v>240757400</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1849800613400</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B200" t="n">
+        <v>42750</v>
+      </c>
+      <c r="C200" t="n">
+        <v>29522</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5746</v>
+      </c>
+      <c r="E200" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F200" t="n">
+        <v>245641500</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1887326401500</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B201" t="n">
+        <v>44000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>48585</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5872</v>
+      </c>
+      <c r="E201" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F201" t="n">
+        <v>258368000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1942511384000</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B202" t="n">
+        <v>47300</v>
+      </c>
+      <c r="C202" t="n">
+        <v>277839</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5854</v>
+      </c>
+      <c r="E202" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F202" t="n">
+        <v>276894200</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2088199737800</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B203" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C203" t="n">
+        <v>245424</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5854</v>
+      </c>
+      <c r="E203" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F203" t="n">
+        <v>292700000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2207399300000</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B204" t="n">
+        <v>49700</v>
+      </c>
+      <c r="C204" t="n">
+        <v>123772</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5854</v>
+      </c>
+      <c r="E204" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F204" t="n">
+        <v>290943800</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2194154904200</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B205" t="n">
+        <v>49000</v>
+      </c>
+      <c r="C205" t="n">
+        <v>103686</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5854</v>
+      </c>
+      <c r="E205" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F205" t="n">
+        <v>286846000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2163251314000</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B206" t="n">
+        <v>47650</v>
+      </c>
+      <c r="C206" t="n">
+        <v>91575</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5872</v>
+      </c>
+      <c r="E206" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F206" t="n">
+        <v>279800800</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2103651532900</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B207" t="n">
+        <v>48450</v>
+      </c>
+      <c r="C207" t="n">
+        <v>54725</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5872</v>
+      </c>
+      <c r="E207" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F207" t="n">
+        <v>284498400</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2138969921700</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B208" t="n">
+        <v>47950</v>
+      </c>
+      <c r="C208" t="n">
+        <v>105711</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5872</v>
+      </c>
+      <c r="E208" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F208" t="n">
+        <v>281562400</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2116895928700</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B209" t="n">
+        <v>47450</v>
+      </c>
+      <c r="C209" t="n">
+        <v>68987</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5878</v>
+      </c>
+      <c r="E209" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F209" t="n">
+        <v>278911100</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2094821935700</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>46150</v>
+      </c>
+      <c r="C210" t="n">
+        <v>86921</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5872</v>
+      </c>
+      <c r="E210" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F210" t="n">
+        <v>270992800</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2037429553900</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>48600</v>
+      </c>
+      <c r="C211" t="n">
+        <v>100625</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E211" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F211" t="n">
+        <v>284796000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2145592119600</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>47400</v>
+      </c>
+      <c r="C212" t="n">
+        <v>39217</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E212" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F212" t="n">
+        <v>277764000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2092614536400</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>48450</v>
+      </c>
+      <c r="C213" t="n">
+        <v>84840</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E213" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F213" t="n">
+        <v>283917000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2138969921700</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>47100</v>
+      </c>
+      <c r="C214" t="n">
+        <v>68069</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5962</v>
+      </c>
+      <c r="E214" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F214" t="n">
+        <v>280810200</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2079370140600</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>47850</v>
+      </c>
+      <c r="C215" t="n">
+        <v>61911</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5956</v>
+      </c>
+      <c r="E215" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F215" t="n">
+        <v>284994600</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2112481130100</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.009999999776482582</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>47100</v>
+      </c>
+      <c r="C216" t="n">
+        <v>47868</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>45900</v>
+      </c>
+      <c r="C217" t="n">
+        <v>68216</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/b_list_6.xlsx
+++ b/b_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6136,11 +6136,21 @@
       <c r="C219" t="n">
         <v>443425</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>6677555</v>
+      </c>
+      <c r="E219" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F219" t="n">
+        <v>187305417750</v>
+      </c>
+      <c r="G219" t="n">
+        <v>4821585634800</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.880000114440918</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -6157,6 +6167,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>26900</v>
+      </c>
+      <c r="C221" t="n">
+        <v>680486</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6169,7 +6195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11871,11 +11897,21 @@
       <c r="C219" t="n">
         <v>1128644</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>3601277</v>
+      </c>
+      <c r="E219" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F219" t="n">
+        <v>24488683600</v>
+      </c>
+      <c r="G219" t="n">
+        <v>643956844800</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.799999952316284</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11885,13 +11921,29 @@
         <v>6600</v>
       </c>
       <c r="C220" t="n">
-        <v>1470532</v>
+        <v>1485158</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6730</v>
+      </c>
+      <c r="C221" t="n">
+        <v>993446</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11904,7 +11956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17606,11 +17658,21 @@
       <c r="C219" t="n">
         <v>211318</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>1833819</v>
+      </c>
+      <c r="E219" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F219" t="n">
+        <v>7005188580</v>
+      </c>
+      <c r="G219" t="n">
+        <v>269208300140</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2.599999904632568</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -17620,13 +17682,29 @@
         <v>3745</v>
       </c>
       <c r="C220" t="n">
-        <v>526526</v>
+        <v>527944</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3735</v>
+      </c>
+      <c r="C221" t="n">
+        <v>375279</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17639,7 +17717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23341,11 +23419,21 @@
       <c r="C219" t="n">
         <v>110391</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>5974</v>
+      </c>
+      <c r="E219" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F219" t="n">
+        <v>272414400</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2013148161600</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -23362,6 +23450,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>46500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>102670</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23374,7 +23478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29076,11 +29180,21 @@
       <c r="C219" t="n">
         <v>120351</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>376484</v>
+      </c>
+      <c r="E219" t="n">
+        <v>35930773</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1007094700</v>
+      </c>
+      <c r="G219" t="n">
+        <v>96114817775</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.049999952316284</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -29090,13 +29204,29 @@
         <v>2670</v>
       </c>
       <c r="C220" t="n">
-        <v>116547</v>
+        <v>116570</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3010</v>
+      </c>
+      <c r="C221" t="n">
+        <v>19607850</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29109,7 +29239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34811,11 +34941,21 @@
       <c r="C219" t="n">
         <v>3099</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>39295</v>
+      </c>
+      <c r="E219" t="n">
+        <v>17218543</v>
+      </c>
+      <c r="F219" t="n">
+        <v>334793400</v>
+      </c>
+      <c r="G219" t="n">
+        <v>146701986360</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.2300000041723251</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -34833,6 +34973,22 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9420</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1821461</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_6.xlsx
+++ b/b_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6318,11 +6318,21 @@
       <c r="C226" t="n">
         <v>764473</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>6887369</v>
+      </c>
+      <c r="E226" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F226" t="n">
+        <v>189058279050</v>
+      </c>
+      <c r="G226" t="n">
+        <v>4718450113200</v>
+      </c>
+      <c r="H226" t="n">
+        <v>4.010000228881836</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -6339,6 +6349,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>27900</v>
+      </c>
+      <c r="C228" t="n">
+        <v>623294</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6351,7 +6377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12235,11 +12261,21 @@
       <c r="C226" t="n">
         <v>1406623</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>3270591</v>
+      </c>
+      <c r="E226" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F226" t="n">
+        <v>23482843380</v>
+      </c>
+      <c r="G226" t="n">
+        <v>679942668480</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3.450000047683716</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12249,13 +12285,29 @@
         <v>7350</v>
       </c>
       <c r="C227" t="n">
-        <v>1001215</v>
+        <v>1009679</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>7460</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1264454</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12268,7 +12320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18152,11 +18204,21 @@
       <c r="C226" t="n">
         <v>354082</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>1788979</v>
+      </c>
+      <c r="E226" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F226" t="n">
+        <v>6878624255</v>
+      </c>
+      <c r="G226" t="n">
+        <v>270970134565</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2.539999961853027</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -18166,13 +18228,29 @@
         <v>3990</v>
       </c>
       <c r="C227" t="n">
-        <v>543045</v>
+        <v>544707</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>405228</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18185,7 +18263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24069,11 +24147,21 @@
       <c r="C226" t="n">
         <v>51666</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>5884</v>
+      </c>
+      <c r="E226" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F226" t="n">
+        <v>258013400</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1935889186100</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -24090,6 +24178,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C228" t="n">
+        <v>33267</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24102,7 +24206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29986,11 +30090,21 @@
       <c r="C226" t="n">
         <v>708792</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>397551</v>
+      </c>
+      <c r="E226" t="n">
+        <v>35930773</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1077363210</v>
+      </c>
+      <c r="G226" t="n">
+        <v>97372394830</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.110000014305115</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -30000,13 +30114,29 @@
         <v>2750</v>
       </c>
       <c r="C227" t="n">
-        <v>456691</v>
+        <v>461963</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2690</v>
+      </c>
+      <c r="C228" t="n">
+        <v>446865</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30019,7 +30149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35903,11 +36033,21 @@
       <c r="C226" t="n">
         <v>126144</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>31669</v>
+      </c>
+      <c r="E226" t="n">
+        <v>17218543</v>
+      </c>
+      <c r="F226" t="n">
+        <v>243534610</v>
+      </c>
+      <c r="G226" t="n">
+        <v>132410595670</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.1800000071525574</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -35925,6 +36065,22 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
     </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C228" t="n">
+        <v>126007</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_6.xlsx
+++ b/b_list_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6344,11 +6344,21 @@
       <c r="C227" t="n">
         <v>738859</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>6681587</v>
+      </c>
+      <c r="E227" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F227" t="n">
+        <v>188754832750</v>
+      </c>
+      <c r="G227" t="n">
+        <v>4855964142000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3.890000104904175</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -6365,6 +6375,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>27950</v>
+      </c>
+      <c r="C229" t="n">
+        <v>533764</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6377,7 +6403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12287,11 +12313,21 @@
       <c r="C227" t="n">
         <v>1009679</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>3217761</v>
+      </c>
+      <c r="E227" t="n">
+        <v>94699536</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23650543350</v>
+      </c>
+      <c r="G227" t="n">
+        <v>696041589600</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3.400000095367432</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12301,13 +12337,29 @@
         <v>7460</v>
       </c>
       <c r="C228" t="n">
-        <v>1264454</v>
+        <v>1277526</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>7700</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1569301</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12320,7 +12372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18230,11 +18282,21 @@
       <c r="C227" t="n">
         <v>544707</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>1724359</v>
+      </c>
+      <c r="E227" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F227" t="n">
+        <v>6880192410</v>
+      </c>
+      <c r="G227" t="n">
+        <v>281188774230</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2.450000047683716</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -18244,13 +18306,29 @@
         <v>4000</v>
       </c>
       <c r="C228" t="n">
-        <v>405228</v>
+        <v>406089</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4105</v>
+      </c>
+      <c r="C229" t="n">
+        <v>666188</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18263,7 +18341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24173,11 +24251,21 @@
       <c r="C227" t="n">
         <v>40167</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>5938</v>
+      </c>
+      <c r="E227" t="n">
+        <v>44147986</v>
+      </c>
+      <c r="F227" t="n">
+        <v>265428600</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1973414974200</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.009999999776482582</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -24194,6 +24282,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>45500</v>
+      </c>
+      <c r="C229" t="n">
+        <v>34395</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24206,7 +24310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30116,11 +30220,21 @@
       <c r="C227" t="n">
         <v>461963</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>359791</v>
+      </c>
+      <c r="E227" t="n">
+        <v>35930773</v>
+      </c>
+      <c r="F227" t="n">
+        <v>989425250</v>
+      </c>
+      <c r="G227" t="n">
+        <v>98809625750</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -30130,13 +30244,29 @@
         <v>2690</v>
       </c>
       <c r="C228" t="n">
-        <v>446865</v>
+        <v>450173</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2730</v>
+      </c>
+      <c r="C229" t="n">
+        <v>249708</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30149,7 +30279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36059,11 +36189,21 @@
       <c r="C227" t="n">
         <v>120796</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>31128</v>
+      </c>
+      <c r="E227" t="n">
+        <v>17218543</v>
+      </c>
+      <c r="F227" t="n">
+        <v>239685600</v>
+      </c>
+      <c r="G227" t="n">
+        <v>132582781100</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.1800000071525574</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -36081,6 +36221,22 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8560</v>
+      </c>
+      <c r="C229" t="n">
+        <v>125851</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
